--- a/SolprodABK.xlsx
+++ b/SolprodABK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce47301d0b58e66/Dokument/Energigemenskaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{50FC63F0-F563-48AF-87D3-1739D6BCCEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A66332-01C8-4B31-B4BE-DCC951971BFF}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{50FC63F0-F563-48AF-87D3-1739D6BCCEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054DAB25-83D8-4800-A996-E147D6544262}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5D49307-70A6-48A0-B2F5-35516DC518EB}"/>
   </bookViews>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2F0676-9B59-4000-8D93-5A6878106836}">
   <dimension ref="A1:A8760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8734" workbookViewId="0">
-      <selection activeCell="C8734" sqref="C8734"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
